--- a/spark-ws/MLlib/result-data/data-dashboard-L2-第二层聚类.xlsx
+++ b/spark-ws/MLlib/result-data/data-dashboard-L2-第二层聚类.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="70">
   <si>
     <t>counter</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,7 +275,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>年用电量</t>
+    <t>用户数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年用电量合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分组:(1)第一层：A/B/C/D（2）第二层：阶梯/分时/两者都不是
+   A-第一月用电量不为0
+   B-第一月用电量为0
+   C-前两月用电量为0
+   D-前三月用电量为0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,9 +304,9 @@
     <numFmt numFmtId="177" formatCode="0.000000%"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +430,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -515,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,28 +648,40 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,8 +1945,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B8:I14" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="B8:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B9:I15" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+  <autoFilter ref="B9:I15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="列1" dataDxfId="73"/>
     <tableColumn id="2" name="类别" dataDxfId="72"/>
@@ -1926,8 +1962,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="B16:I22" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="B16:I22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_6" displayName="表1_6" ref="B17:I23" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="B17:I23"/>
   <tableColumns count="8">
     <tableColumn id="1" name="列1" dataDxfId="63"/>
     <tableColumn id="2" name="类别" dataDxfId="62"/>
@@ -1943,8 +1979,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_67" displayName="表1_67" ref="B24:I30" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="B24:I30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表1_67" displayName="表1_67" ref="B25:I31" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="B25:I31"/>
   <tableColumns count="8">
     <tableColumn id="1" name="列1" dataDxfId="53"/>
     <tableColumn id="2" name="类别" dataDxfId="52"/>
@@ -1960,8 +1996,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表1_68" displayName="表1_68" ref="B32:I38" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="B32:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表1_68" displayName="表1_68" ref="B33:I39" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="B33:I39"/>
   <tableColumns count="8">
     <tableColumn id="1" name="列1" dataDxfId="43"/>
     <tableColumn id="2" name="类别" dataDxfId="42"/>
@@ -2375,13 +2411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" customWidth="1"/>
@@ -2394,951 +2430,983 @@
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="E2" s="25" t="s">
+    <row r="2" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="E3" s="25" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K4" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="25" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="E5" s="25" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K6" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="K6" s="25" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="K7" s="25" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="14" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="22" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K10" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="16" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D11" s="23">
         <v>12361239</v>
       </c>
-      <c r="E10" s="39">
-        <f>SUM(F10:H10)</f>
+      <c r="E11" s="38">
+        <f>SUM(F11:H11)</f>
         <v>12360835</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F11" s="36">
         <v>11303960</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G11" s="36">
         <v>36786</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H11" s="37">
         <v>1020089</v>
       </c>
-      <c r="I10" s="16">
-        <f>D10-E10</f>
+      <c r="I11" s="16">
+        <f>D11-E11</f>
         <v>404</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K11" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D12" s="23">
         <v>2176177</v>
       </c>
-      <c r="E11" s="39">
-        <f>SUM(F11:H11)</f>
+      <c r="E12" s="38">
+        <f>SUM(F12:H12)</f>
         <v>2176158</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F12" s="36">
         <v>2090868</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G12" s="36">
         <v>628</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H12" s="37">
         <v>84662</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" ref="I11:I13" si="0">D11-E11</f>
+      <c r="I12" s="16">
+        <f t="shared" ref="I12:I14" si="0">D12-E12</f>
         <v>19</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K12" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="16" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D13" s="23">
         <v>397727</v>
       </c>
-      <c r="E12" s="39">
-        <f>SUM(F12:H12)</f>
+      <c r="E13" s="38">
+        <f>SUM(F13:H13)</f>
         <v>397713</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F13" s="36">
         <v>343872</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G13" s="36">
         <v>958</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H13" s="37">
         <v>52883</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K13" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1">
-      <c r="B13" s="16" t="s">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D14" s="23">
         <v>5071220</v>
       </c>
-      <c r="E13" s="39">
-        <f>SUM(F13:H13)</f>
+      <c r="E14" s="38">
+        <f>SUM(F14:H14)</f>
         <v>5071117</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F14" s="36">
         <v>4285267</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G14" s="36">
         <v>18805</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H14" s="37">
         <v>767045</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="16">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K14" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="16"/>
-      <c r="C14" s="21" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="24">
-        <f t="shared" ref="D14:I14" si="1">SUM(D10:D13)</f>
+      <c r="D15" s="24">
+        <f t="shared" ref="D15:I15" si="1">SUM(D11:D14)</f>
         <v>20006363</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E15" s="39">
         <f t="shared" si="1"/>
         <v>20005823</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F15" s="40">
         <f t="shared" si="1"/>
         <v>18023967</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G15" s="40">
         <f t="shared" si="1"/>
         <v>57177</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H15" s="41">
         <f t="shared" si="1"/>
         <v>1924679</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I15" s="21">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H18" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="23">
-        <f>D10</f>
+      <c r="D19" s="23">
+        <f t="shared" ref="D19:E22" si="2">D11</f>
         <v>12361239</v>
       </c>
-      <c r="E18" s="39">
-        <f>E10</f>
+      <c r="E19" s="38">
+        <f t="shared" si="2"/>
         <v>12360835</v>
       </c>
-      <c r="F18" s="32">
-        <f>F10/$E10</f>
+      <c r="F19" s="32">
+        <f t="shared" ref="F19:H23" si="3">F11/$E11</f>
         <v>0.91449809013711447</v>
       </c>
-      <c r="G18" s="32">
-        <f>G10/$E10</f>
+      <c r="G19" s="32">
+        <f t="shared" si="3"/>
         <v>2.9760125428419681E-3</v>
       </c>
-      <c r="H18" s="33">
-        <f>H10/$E10</f>
+      <c r="H19" s="33">
+        <f t="shared" si="3"/>
         <v>8.2525897320043506E-2</v>
       </c>
-      <c r="I18" s="16">
-        <f>D18-E18</f>
+      <c r="I19" s="16">
+        <f>D19-E19</f>
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="16" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D20" s="23">
+        <f t="shared" si="2"/>
+        <v>2176177</v>
+      </c>
+      <c r="E20" s="38">
+        <f t="shared" si="2"/>
+        <v>2176158</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="3"/>
+        <v>0.96080707375107877</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="3"/>
+        <v>2.8858198715350634E-4</v>
+      </c>
+      <c r="H20" s="33">
+        <f t="shared" si="3"/>
+        <v>3.8904344261767761E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20:I22" si="4">D20-E20</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="23">
+        <f t="shared" si="2"/>
+        <v>397727</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="2"/>
+        <v>397713</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="3"/>
+        <v>0.86462348477419648</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="3"/>
+        <v>2.4087721547950405E-3</v>
+      </c>
+      <c r="H21" s="33">
+        <f t="shared" si="3"/>
+        <v>0.1329677430710085</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" si="2"/>
+        <v>5071220</v>
+      </c>
+      <c r="E22" s="38">
+        <f t="shared" si="2"/>
+        <v>5071117</v>
+      </c>
+      <c r="F22" s="35">
+        <f t="shared" si="3"/>
+        <v>0.84503414139330646</v>
+      </c>
+      <c r="G22" s="35">
+        <f t="shared" si="3"/>
+        <v>3.7082559917272664E-3</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="3"/>
+        <v>0.15125760261496629</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" ref="D23:I23" si="5">SUM(D19:D22)</f>
+        <v>20006363</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="5"/>
+        <v>20005823</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="3"/>
+        <v>0.90093604247123449</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="3"/>
+        <v>2.8580178880918822E-3</v>
+      </c>
+      <c r="H23" s="42">
+        <f t="shared" si="3"/>
+        <v>9.6205939640673616E-2</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="23">
         <f>D11</f>
-        <v>2176177</v>
-      </c>
-      <c r="E19" s="39">
-        <f>E11</f>
-        <v>2176158</v>
-      </c>
-      <c r="F19" s="32">
-        <f>F11/$E11</f>
-        <v>0.96080707375107877</v>
-      </c>
-      <c r="G19" s="32">
-        <f>G11/$E11</f>
-        <v>2.8858198715350634E-4</v>
-      </c>
-      <c r="H19" s="33">
-        <f>H11/$E11</f>
-        <v>3.8904344261767761E-2</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" ref="I19:I21" si="2">D19-E19</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="23">
-        <f>D12</f>
-        <v>397727</v>
-      </c>
-      <c r="E20" s="39">
-        <f>E12</f>
-        <v>397713</v>
-      </c>
-      <c r="F20" s="32">
-        <f>F12/$E12</f>
-        <v>0.86462348477419648</v>
-      </c>
-      <c r="G20" s="32">
-        <f>G12/$E12</f>
-        <v>2.4087721547950405E-3</v>
-      </c>
-      <c r="H20" s="33">
-        <f>H12/$E12</f>
-        <v>0.1329677430710085</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="B21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23">
-        <f>D13</f>
-        <v>5071220</v>
-      </c>
-      <c r="E21" s="39">
-        <f>E13</f>
-        <v>5071117</v>
-      </c>
-      <c r="F21" s="35">
-        <f>F13/$E13</f>
-        <v>0.84503414139330646</v>
-      </c>
-      <c r="G21" s="35">
-        <f>G13/$E13</f>
-        <v>3.7082559917272664E-3</v>
-      </c>
-      <c r="H21" s="34">
-        <f>H13/$E13</f>
-        <v>0.15125760261496629</v>
-      </c>
-      <c r="I21" s="16">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="16"/>
-      <c r="C22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="24">
-        <f t="shared" ref="D22:I22" si="3">SUM(D18:D21)</f>
-        <v>20006363</v>
-      </c>
-      <c r="E22" s="40">
-        <f t="shared" si="3"/>
-        <v>20005823</v>
-      </c>
-      <c r="F22" s="32">
-        <f>F14/$E14</f>
-        <v>0.90093604247123449</v>
-      </c>
-      <c r="G22" s="32">
-        <f>G14/$E14</f>
-        <v>2.8580178880918822E-3</v>
-      </c>
-      <c r="H22" s="43">
-        <f>H14/$E14</f>
-        <v>9.6205939640673616E-2</v>
-      </c>
-      <c r="I22" s="21">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="23">
-        <f>D10</f>
         <v>12361239</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E27" s="38">
         <f>SUM(表1_67[[#This Row],[1.Ladder]:[3.NotBoth]])</f>
         <v>46646879215</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F27" s="36">
         <v>14730945033</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G27" s="36">
         <v>19595980974</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H27" s="37">
         <v>12319953208</v>
       </c>
-      <c r="I26" s="16">
-        <f>I18</f>
+      <c r="I27" s="16">
+        <f>I19</f>
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="16" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="23">
-        <f>D11</f>
+      <c r="D28" s="23">
+        <f>D12</f>
         <v>2176177</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E28" s="38">
         <f>SUM(表1_67[[#This Row],[1.Ladder]:[3.NotBoth]])</f>
         <v>32207928219</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F28" s="36">
         <v>31472513710</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G28" s="36">
         <v>394803870</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H28" s="37">
         <v>340610639</v>
       </c>
-      <c r="I27" s="16">
-        <f>I19</f>
+      <c r="I28" s="16">
+        <f>I20</f>
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="16" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="23">
-        <f>D12</f>
+      <c r="D29" s="23">
+        <f>D13</f>
         <v>397727</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E29" s="38">
         <f>SUM(表1_67[[#This Row],[1.Ladder]:[3.NotBoth]])</f>
         <v>1740731336</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F29" s="36">
         <v>235374297</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G29" s="36">
         <v>1259366211</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H29" s="37">
         <v>245990828</v>
       </c>
-      <c r="I28" s="16">
-        <f>I20</f>
+      <c r="I29" s="16">
+        <f>I21</f>
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="16" t="s">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="23">
-        <f>D13</f>
+      <c r="D30" s="23">
+        <f>D14</f>
         <v>5071220</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E30" s="38">
         <f>SUM(表1_67[[#This Row],[1.Ladder]:[3.NotBoth]])</f>
         <v>3407896789</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F30" s="36">
         <v>575022784</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G30" s="36">
         <v>1759051449</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H30" s="37">
         <v>1073822556</v>
       </c>
-      <c r="I29" s="16">
-        <f>I21</f>
+      <c r="I30" s="16">
+        <f>I22</f>
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="36"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="21" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="24">
-        <f t="shared" ref="D30:E30" si="4">SUM(D26:D29)</f>
+      <c r="D31" s="24">
+        <f t="shared" ref="D31:E31" si="6">SUM(D27:D30)</f>
         <v>20006363</v>
       </c>
-      <c r="E30" s="40">
-        <f t="shared" si="4"/>
+      <c r="E31" s="39">
+        <f t="shared" si="6"/>
         <v>84003435559</v>
       </c>
-      <c r="F30" s="41">
-        <f>SUM(F26:F29)</f>
+      <c r="F31" s="40">
+        <f>SUM(F27:F30)</f>
         <v>47013855824</v>
       </c>
-      <c r="G30" s="41">
-        <f>SUM(G26:G29)</f>
+      <c r="G31" s="40">
+        <f>SUM(G27:G30)</f>
         <v>23009202504</v>
       </c>
-      <c r="H30" s="42">
-        <f>SUM(H26:H29)</f>
+      <c r="H31" s="41">
+        <f>SUM(H27:H30)</f>
         <v>13980377231</v>
       </c>
-      <c r="I30" s="21">
-        <f t="shared" ref="I30" si="5">SUM(I26:I29)</f>
+      <c r="I31" s="21">
+        <f t="shared" ref="I31" si="7">SUM(I27:I30)</f>
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="36"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="36"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="36"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="22" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G34" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H34" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I34" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="36"/>
-      <c r="B34" s="16" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D34" s="23">
-        <f>D26</f>
-        <v>12361239</v>
-      </c>
-      <c r="E34" s="39">
-        <f>E26</f>
-        <v>46646879215</v>
-      </c>
-      <c r="F34" s="32">
-        <f>F26/$E26</f>
-        <v>0.31579701109486108</v>
-      </c>
-      <c r="G34" s="32">
-        <f t="shared" ref="G34:H34" si="6">G26/$E26</f>
-        <v>0.42009200409056774</v>
-      </c>
-      <c r="H34" s="33">
-        <f t="shared" si="6"/>
-        <v>0.26411098481457118</v>
-      </c>
-      <c r="I34" s="16">
-        <f>I26</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="36"/>
-      <c r="B35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="D35" s="23">
         <f>D27</f>
-        <v>2176177</v>
-      </c>
-      <c r="E35" s="39">
-        <f t="shared" ref="E35:E37" si="7">E27</f>
-        <v>32207928219</v>
+        <v>12361239</v>
+      </c>
+      <c r="E35" s="38">
+        <f>E27</f>
+        <v>46646879215</v>
       </c>
       <c r="F35" s="32">
-        <f t="shared" ref="F35:H38" si="8">F27/$E27</f>
-        <v>0.97716666207154035</v>
+        <f>F27/$E27</f>
+        <v>0.31579701109486108</v>
       </c>
       <c r="G35" s="32">
-        <f t="shared" si="8"/>
-        <v>1.2257971618525234E-2</v>
+        <f t="shared" ref="G35:H35" si="8">G27/$E27</f>
+        <v>0.42009200409056774</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="8"/>
-        <v>1.0575366309934461E-2</v>
+        <v>0.26411098481457118</v>
       </c>
       <c r="I35" s="16">
         <f>I27</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
       <c r="B36" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="23">
         <f>D28</f>
-        <v>397727</v>
-      </c>
-      <c r="E36" s="39">
-        <f t="shared" si="7"/>
-        <v>1740731336</v>
+        <v>2176177</v>
+      </c>
+      <c r="E36" s="38">
+        <f t="shared" ref="E36:E38" si="9">E28</f>
+        <v>32207928219</v>
       </c>
       <c r="F36" s="32">
-        <f t="shared" ref="F36:H36" si="9">F28/$E28</f>
-        <v>0.13521575221416018</v>
+        <f t="shared" ref="F36:H39" si="10">F28/$E28</f>
+        <v>0.97716666207154035</v>
       </c>
       <c r="G36" s="32">
-        <f t="shared" si="9"/>
-        <v>0.72346960438701491</v>
+        <f t="shared" si="10"/>
+        <v>1.2257971618525234E-2</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" si="9"/>
-        <v>0.14131464339882488</v>
+        <f t="shared" si="10"/>
+        <v>1.0575366309934461E-2</v>
       </c>
       <c r="I36" s="16">
         <f>I28</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1">
-      <c r="A37" s="36"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
       <c r="B37" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="23">
         <f>D29</f>
-        <v>5071220</v>
-      </c>
-      <c r="E37" s="39">
-        <f t="shared" si="7"/>
-        <v>3407896789</v>
-      </c>
-      <c r="F37" s="35">
-        <f t="shared" si="8"/>
-        <v>0.16873245277147389</v>
-      </c>
-      <c r="G37" s="35">
-        <f t="shared" si="8"/>
-        <v>0.51616922633275208</v>
-      </c>
-      <c r="H37" s="34">
-        <f t="shared" si="8"/>
-        <v>0.31509832089577405</v>
+        <v>397727</v>
+      </c>
+      <c r="E37" s="38">
+        <f t="shared" si="9"/>
+        <v>1740731336</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" ref="F37:H37" si="11">F29/$E29</f>
+        <v>0.13521575221416018</v>
+      </c>
+      <c r="G37" s="32">
+        <f t="shared" si="11"/>
+        <v>0.72346960438701491</v>
+      </c>
+      <c r="H37" s="33">
+        <f t="shared" si="11"/>
+        <v>0.14131464339882488</v>
       </c>
       <c r="I37" s="16">
         <f>I29</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="23">
+        <f>D30</f>
+        <v>5071220</v>
+      </c>
+      <c r="E38" s="38">
+        <f t="shared" si="9"/>
+        <v>3407896789</v>
+      </c>
+      <c r="F38" s="35">
+        <f t="shared" si="10"/>
+        <v>0.16873245277147389</v>
+      </c>
+      <c r="G38" s="35">
+        <f t="shared" si="10"/>
+        <v>0.51616922633275208</v>
+      </c>
+      <c r="H38" s="34">
+        <f t="shared" si="10"/>
+        <v>0.31509832089577405</v>
+      </c>
+      <c r="I38" s="16">
+        <f>I30</f>
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="21" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="24">
-        <f t="shared" ref="D38:E38" si="10">SUM(D34:D37)</f>
+      <c r="D39" s="24">
+        <f t="shared" ref="D39:E39" si="12">SUM(D35:D38)</f>
         <v>20006363</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E39" s="39">
+        <f t="shared" si="12"/>
+        <v>84003435559</v>
+      </c>
+      <c r="F39" s="32">
+        <f>F31/$E31</f>
+        <v>0.55966586974862131</v>
+      </c>
+      <c r="G39" s="32">
+        <f>G31/$E31</f>
+        <v>0.27390787473018807</v>
+      </c>
+      <c r="H39" s="42">
         <f t="shared" si="10"/>
-        <v>84003435559</v>
-      </c>
-      <c r="F38" s="32">
-        <f>F30/$E30</f>
-        <v>0.55966586974862131</v>
-      </c>
-      <c r="G38" s="32">
-        <f>G30/$E30</f>
-        <v>0.27390787473018807</v>
-      </c>
-      <c r="H38" s="43">
-        <f t="shared" si="8"/>
         <v>0.16642625552119056</v>
       </c>
-      <c r="I38" s="21">
-        <f t="shared" ref="I38" si="11">SUM(I34:I37)</f>
+      <c r="I39" s="21">
+        <f t="shared" ref="I39" si="13">SUM(I35:I38)</f>
         <v>540</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A24:A38"/>
+  <mergeCells count="3">
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" location="GoodM1_L!A1" display="GoodM1_L"/>
-    <hyperlink ref="K3" location="GoodM1_T!A1" display="GoodM1_T"/>
-    <hyperlink ref="K4" location="GoodM1_Not!A1" display="GoodM1_Not"/>
-    <hyperlink ref="K5" location="GoodM2_L!A1" display="GoodM2_L"/>
-    <hyperlink ref="K6" location="GoodM2_T!A1" display="GoodM2_T"/>
-    <hyperlink ref="K7" location="GoodM2_Not!A1" display="GoodM2_Not"/>
-    <hyperlink ref="K8" location="BadF2ExcludeF3_L!A1" display="BadF2ExcludeF3_L"/>
-    <hyperlink ref="K9" location="BadF2ExcludeF3_T!A1" display="BadF2ExcludeF3_T"/>
-    <hyperlink ref="K10" location="BadF2ExcludeF3_Not!A1" display="BadF2ExcludeF3_Not"/>
-    <hyperlink ref="K11" location="BadF3_L!A1" display="BadF3_L"/>
-    <hyperlink ref="K12" location="BadF3_T!A1" display="BadF3_T"/>
-    <hyperlink ref="K13" location="BadF3_Not!A1" display="BadF3_Not"/>
-    <hyperlink ref="F2" location="GoodM1_L!A1" display="GoodM1_L"/>
-    <hyperlink ref="G2" location="GoodM1_T!A1" display="GoodM1_T"/>
-    <hyperlink ref="H2" location="GoodM1_Not!A1" display="GoodM1_Not"/>
-    <hyperlink ref="F3" location="GoodM2_L!A1" display="GoodM2_L"/>
-    <hyperlink ref="G3" location="GoodM2_T!A1" display="GoodM2_T"/>
-    <hyperlink ref="H3" location="GoodM2_Not!A1" display="GoodM2_Not"/>
-    <hyperlink ref="F4" location="BadF2ExcludeF3_L!A1" display="BadF2ExcludeF3_L"/>
-    <hyperlink ref="G4" location="BadF2ExcludeF3_T!A1" display="BadF2ExcludeF3_T"/>
-    <hyperlink ref="H4" location="BadF2ExcludeF3_Not!A1" display="BadF2ExcludeF3_Not"/>
-    <hyperlink ref="F5" location="BadF3_L!A1" display="BadF3_L"/>
-    <hyperlink ref="G5" location="BadF3_T!A1" display="BadF3_T"/>
-    <hyperlink ref="H5" location="BadF3_Not!A1" display="BadF3_Not"/>
-    <hyperlink ref="E2" location="分析GoodM1!A1" display="分析GoodM1"/>
-    <hyperlink ref="E3" location="分析GoodM2!A1" display="分析GoodM2"/>
-    <hyperlink ref="E4" location="分析BadF2ExcludeF3!A1" display="分析BadF2ExcludeF3"/>
-    <hyperlink ref="E5" location="分析BadF3!A1" display="分析BadF3"/>
+    <hyperlink ref="K3" location="GoodM1_L!A1" display="GoodM1_L"/>
+    <hyperlink ref="K4" location="GoodM1_T!A1" display="GoodM1_T"/>
+    <hyperlink ref="K5" location="GoodM1_Not!A1" display="GoodM1_Not"/>
+    <hyperlink ref="K6" location="GoodM2_L!A1" display="GoodM2_L"/>
+    <hyperlink ref="K7" location="GoodM2_T!A1" display="GoodM2_T"/>
+    <hyperlink ref="K8" location="GoodM2_Not!A1" display="GoodM2_Not"/>
+    <hyperlink ref="K9" location="BadF2ExcludeF3_L!A1" display="BadF2ExcludeF3_L"/>
+    <hyperlink ref="K10" location="BadF2ExcludeF3_T!A1" display="BadF2ExcludeF3_T"/>
+    <hyperlink ref="K11" location="BadF2ExcludeF3_Not!A1" display="BadF2ExcludeF3_Not"/>
+    <hyperlink ref="K12" location="BadF3_L!A1" display="BadF3_L"/>
+    <hyperlink ref="K13" location="BadF3_T!A1" display="BadF3_T"/>
+    <hyperlink ref="K14" location="BadF3_Not!A1" display="BadF3_Not"/>
+    <hyperlink ref="F3" location="GoodM1_L!A1" display="GoodM1_L"/>
+    <hyperlink ref="G3" location="GoodM1_T!A1" display="GoodM1_T"/>
+    <hyperlink ref="H3" location="GoodM1_Not!A1" display="GoodM1_Not"/>
+    <hyperlink ref="F4" location="GoodM2_L!A1" display="GoodM2_L"/>
+    <hyperlink ref="G4" location="GoodM2_T!A1" display="GoodM2_T"/>
+    <hyperlink ref="H4" location="GoodM2_Not!A1" display="GoodM2_Not"/>
+    <hyperlink ref="F5" location="BadF2ExcludeF3_L!A1" display="BadF2ExcludeF3_L"/>
+    <hyperlink ref="G5" location="BadF2ExcludeF3_T!A1" display="BadF2ExcludeF3_T"/>
+    <hyperlink ref="H5" location="BadF2ExcludeF3_Not!A1" display="BadF2ExcludeF3_Not"/>
+    <hyperlink ref="F6" location="BadF3_L!A1" display="BadF3_L"/>
+    <hyperlink ref="G6" location="BadF3_T!A1" display="BadF3_T"/>
+    <hyperlink ref="H6" location="BadF3_Not!A1" display="BadF3_Not"/>
+    <hyperlink ref="E3" location="分析GoodM1!A1" display="分析GoodM1"/>
+    <hyperlink ref="E4" location="分析GoodM2!A1" display="分析GoodM2"/>
+    <hyperlink ref="E5" location="分析BadF2ExcludeF3!A1" display="分析BadF2ExcludeF3"/>
+    <hyperlink ref="E6" location="分析BadF3!A1" display="分析BadF3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3362,7 +3430,7 @@
       <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -3370,7 +3438,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -3414,7 +3482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>1.5923566878980893E-3</v>
@@ -3462,7 +3530,7 @@
         <v>10016802</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>6.369426751592357E-3</v>
@@ -3510,7 +3578,7 @@
         <v>116191</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3.1847133757961785E-3</v>
@@ -3558,7 +3626,7 @@
         <v>5444208</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3.1847133757961785E-3</v>
@@ -3606,7 +3674,7 @@
         <v>319150</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>1.2738853503184714E-2</v>
@@ -3654,7 +3722,7 @@
         <v>71850.172413793101</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>0.4140127388535032</v>
@@ -3702,7 +3770,7 @@
         <v>2840.6015936254898</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>3.1847133757961785E-3</v>
@@ -3750,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>0.21496815286624205</v>
@@ -3798,7 +3866,7 @@
         <v>9389.7464788732395</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3.1847133757961785E-3</v>
@@ -3846,7 +3914,7 @@
         <v>812000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>3.5031847133757961E-2</v>
@@ -3894,7 +3962,7 @@
         <v>47296.157894736803</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>9.5541401273885346E-3</v>
@@ -3942,7 +4010,7 @@
         <v>44611.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>1.751592356687898E-2</v>
@@ -3990,7 +4058,7 @@
         <v>110292.875</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>3.1847133757961785E-3</v>
@@ -4038,7 +4106,7 @@
         <v>140340</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>0.16401273885350318</v>
@@ -4086,7 +4154,7 @@
         <v>25785.761904761901</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>1.5923566878980893E-3</v>
@@ -4134,7 +4202,7 @@
         <v>375224</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>7.6433121019108277E-2</v>
@@ -4182,7 +4250,7 @@
         <v>28797.444444444402</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>9.5541401273885346E-3</v>
@@ -4230,7 +4298,7 @@
         <v>192056.25</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.5923566878980893E-3</v>
@@ -4278,7 +4346,7 @@
         <v>152800</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>9.5541401273885346E-3</v>
@@ -4326,7 +4394,7 @@
         <v>63717.833333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>9.5541401273885346E-3</v>
@@ -4374,7 +4442,7 @@
         <v>502352.16666666599</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1.0000000000000002</v>
@@ -4384,7 +4452,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -4438,7 +4506,7 @@
         <v>178420</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -4492,7 +4560,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -4546,7 +4614,7 @@
         <v>342672</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4600,7 +4668,7 @@
         <v>-10150</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4654,7 +4722,7 @@
         <v>-15553.448275862</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4708,7 +4776,7 @@
         <v>698.47011952190996</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4762,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4816,7 +4884,7 @@
         <v>861.51408450704912</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4870,7 +4938,7 @@
         <v>568000</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4924,7 +4992,7 @@
         <v>23321.157894736803</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4978,7 +5046,7 @@
         <v>-34635.875</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5032,7 +5100,7 @@
         <v>-63654.75</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5086,7 +5154,7 @@
         <v>-108915</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5140,7 +5208,7 @@
         <v>-89.342857142797584</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5194,7 +5262,7 @@
         <v>-2356</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5248,7 +5316,7 @@
         <v>9577.833333333303</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5302,7 +5370,7 @@
         <v>-29716.25</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -5356,7 +5424,7 @@
         <v>-588560</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -5410,7 +5478,7 @@
         <v>39222</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -5528,7 +5596,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -5536,7 +5604,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -5580,7 +5648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>2.3623349318466372E-5</v>
@@ -5628,7 +5696,7 @@
         <v>2884636.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>5.4333703432472651E-4</v>
@@ -5676,7 +5744,7 @@
         <v>25251.212290502699</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>1.1315584323545392E-2</v>
@@ -5724,7 +5792,7 @@
         <v>3170.2906013683801</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>6.4149205074295432E-2</v>
@@ -5772,7 +5840,7 @@
         <v>741.69749298737702</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>0.13255061302591481</v>
@@ -5820,7 +5888,7 @@
         <v>206.201150981719</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>9.1942075547471122E-2</v>
@@ -5868,7 +5936,7 @@
         <v>452.252516411378</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>1.1693557912640855E-3</v>
@@ -5916,7 +5984,7 @@
         <v>15357.641025641</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>1.1811674659233187E-4</v>
@@ -5964,7 +6032,7 @@
         <v>64770.400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5.6223571377949965E-3</v>
@@ -6012,7 +6080,7 @@
         <v>3464.8675213675201</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>3.7679242162953863E-3</v>
@@ -6060,7 +6128,7 @@
         <v>4593.4876543209803</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>0.19366421771278733</v>
@@ -6108,7 +6176,7 @@
         <v>91.002786439328602</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>3.1300937846967941E-3</v>
@@ -6156,7 +6224,7 @@
         <v>8073.61467889908</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>2.1993338215492191E-2</v>
@@ -6204,7 +6272,7 @@
         <v>1061.0739476678</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>3.5435023977699562E-5</v>
@@ -6252,7 +6320,7 @@
         <v>8880</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>5.0790201034702702E-4</v>
@@ -6300,7 +6368,7 @@
         <v>18664.791666666599</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>5.1971368500626015E-4</v>
@@ -6348,7 +6416,7 @@
         <v>15484.833333333299</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>5.7522855590465619E-2</v>
@@ -6396,7 +6464,7 @@
         <v>356.626369741958</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.4079516193805958E-2</v>
@@ -6444,7 +6512,7 @@
         <v>652.61328125</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>3.1466301292197206E-2</v>
@@ -6492,7 +6560,7 @@
         <v>1715.2897637795199</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>0.36587843424440719</v>
@@ -6540,7 +6608,7 @@
         <v>12.949609152212499</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1.0000000000000002</v>
@@ -6550,7 +6618,7 @@
         <v>84662</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -6604,7 +6672,7 @@
         <v>2884624.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -6658,7 +6726,7 @@
         <v>5917.4916201116976</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6712,7 +6780,7 @@
         <v>1381.2754771336001</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -6766,7 +6834,7 @@
         <v>547.29303997195007</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6820,7 +6888,7 @@
         <v>111.60345294515839</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6874,7 +6942,7 @@
         <v>435.746608315098</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6928,7 +6996,7 @@
         <v>13474.38461538459</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6982,7 +7050,7 @@
         <v>-2985.5999999999985</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7036,7 +7104,7 @@
         <v>-689.66666666666015</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7090,7 +7158,7 @@
         <v>2701.1111111111104</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7144,7 +7212,7 @@
         <v>36.907118689046705</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -7198,7 +7266,7 @@
         <v>841.39449541285012</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -7252,7 +7320,7 @@
         <v>-188.02730375426995</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -7306,7 +7374,7 @@
         <v>-960</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -7360,7 +7428,7 @@
         <v>8483.4166666665988</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -7414,7 +7482,7 @@
         <v>-628.8333333333012</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -7468,7 +7536,7 @@
         <v>-58.925061859313985</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -7522,7 +7590,7 @@
         <v>278.7109375</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -7576,7 +7644,7 @@
         <v>1666.9858267716459</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -7694,7 +7762,7 @@
       <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -7702,7 +7770,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -7746,7 +7814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>0.58496184626837888</v>
@@ -7794,7 +7862,7 @@
         <v>21.666278992213101</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>2.3848990321980273E-2</v>
@@ -7842,7 +7910,7 @@
         <v>8.1841269841269799</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>5.9513423599478879E-2</v>
@@ -7890,7 +7958,7 @@
         <v>8.3844263355322699</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>2.3380792853154662E-2</v>
@@ -7938,7 +8006,7 @@
         <v>146.267475645188</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>1.4612995533221663E-2</v>
@@ -7986,7 +8054,7 @@
         <v>77.929146039603907</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6.4215754699423047E-2</v>
@@ -8034,7 +8102,7 @@
         <v>30.899121751684302</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>9.6925600223338911E-3</v>
@@ -8082,7 +8150,7 @@
         <v>9.3918387413962598</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>1.8756979341150194E-3</v>
@@ -8130,7 +8198,7 @@
         <v>945.96810933940696</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>1.5558114647310627E-3</v>
@@ -8178,7 +8246,7 @@
         <v>205.62682215743399</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>3.0127489298343571E-3</v>
@@ -8226,7 +8294,7 @@
         <v>21.438316400580501</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>3.2890145170295926E-3</v>
@@ -8274,7 +8342,7 @@
         <v>130.39941690961999</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>4.9727805695142381E-4</v>
@@ -8322,7 +8390,7 @@
         <v>333.95959595959499</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>9.0149823190024196E-5</v>
@@ -8370,7 +8438,7 @@
         <v>772.15789473684197</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>0.11209694304857622</v>
@@ -8418,7 +8486,7 @@
         <v>111.404281704849</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>4.2806625721198586E-3</v>
@@ -8466,7 +8534,7 @@
         <v>340.00734522560299</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1.6895821701098082E-3</v>
@@ -8514,7 +8582,7 @@
         <v>52.519662921348299</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>3.7804764563558534E-5</v>
@@ -8562,7 +8630,7 @@
         <v>2645.5833333333298</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.8838404987902475E-2</v>
@@ -8610,7 +8678,7 @@
         <v>1.9828614008941801</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>4.7287944351386564E-2</v>
@@ -8658,7 +8726,7 @@
         <v>1.1690243679839301</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>2.5221594081518705E-2</v>
@@ -8706,7 +8774,7 @@
         <v>150.35666846167601</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1.0000000000000002</v>
@@ -8716,7 +8784,7 @@
         <v>343872</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -8770,7 +8838,7 @@
         <v>-31.660826538609101</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -8824,7 +8892,7 @@
         <v>-346.05814536340802</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8878,7 +8946,7 @@
         <v>-235.40641572888271</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -8932,7 +9000,7 @@
         <v>-0.62297043240499761</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8986,7 +9054,7 @@
         <v>-47.517636138613099</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -9040,7 +9108,7 @@
         <v>-25.014436958613995</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -9094,7 +9162,7 @@
         <v>-514.36725663716777</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -9148,7 +9216,7 @@
         <v>671.45102505694695</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -9202,7 +9270,7 @@
         <v>12.790087463557001</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -9256,7 +9324,7 @@
         <v>-575.49637155297455</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -9310,7 +9378,7 @@
         <v>-66.763848396502027</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -9364,7 +9432,7 @@
         <v>-80.56565656565698</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -9418,7 +9486,7 @@
         <v>-2001.7894736842081</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -9472,7 +9540,7 @@
         <v>1.5778017100710002</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -9526,7 +9594,7 @@
         <v>-38.05561385099702</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -9580,7 +9648,7 @@
         <v>-750.3426966292127</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -9634,7 +9702,7 @@
         <v>1448.5833333333298</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -9688,7 +9756,7 @@
         <v>-449.92896174863381</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -9742,7 +9810,7 @@
         <v>-204.66094733960009</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -9860,7 +9928,7 @@
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -9870,7 +9938,7 @@
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -9914,7 +9982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>3.1315240083507308E-3</v>
@@ -9962,7 +10030,7 @@
         <v>793312</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>2.0876826722338203E-3</v>
@@ -10010,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>8.350730688935281E-3</v>
@@ -10058,7 +10126,7 @@
         <v>122162.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4.1753653444676405E-3</v>
@@ -10106,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>2.0876826722338203E-3</v>
@@ -10154,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>2.0876826722338203E-3</v>
@@ -10202,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>2.6096033402922755E-2</v>
@@ -10250,7 +10318,7 @@
         <v>101931.70588235201</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>6.2630480167014616E-3</v>
@@ -10298,7 +10366,7 @@
         <v>1040452</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>5.2192066805845511E-3</v>
@@ -10346,7 +10414,7 @@
         <v>1603478.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>2.0876826722338203E-3</v>
@@ -10394,7 +10462,7 @@
         <v>157980</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>0.18580375782881003</v>
@@ -10442,7 +10510,7 @@
         <v>21745.0809523809</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>1.0438413361169101E-3</v>
@@ -10490,7 +10558,7 @@
         <v>2734080</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>1.0438413361169101E-3</v>
@@ -10538,7 +10606,7 @@
         <v>2414400</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>0.57098121085594988</v>
@@ -10586,7 +10654,7 @@
         <v>5690.1754716981104</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>9.0814196242171186E-2</v>
@@ -10634,7 +10702,7 @@
         <v>27822.2133333333</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>8.350730688935281E-3</v>
@@ -10682,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>7.3068893528183713E-3</v>
@@ -10730,7 +10798,7 @@
         <v>191676.28571428501</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>4.07098121085595E-2</v>
@@ -10778,7 +10846,7 @@
         <v>22634.758620689601</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>1.5657620041753653E-2</v>
@@ -10826,7 +10894,7 @@
         <v>282133.53333333298</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>1.6701461377870562E-2</v>
@@ -10874,7 +10942,7 @@
         <v>208225.46153846101</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1.0000000000000002</v>
@@ -10884,7 +10952,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -10938,7 +11006,7 @@
         <v>-1449688</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -10992,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -11046,7 +11114,7 @@
         <v>-206691.66666666599</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -11100,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -11154,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -11208,7 +11276,7 @@
         <v>-643962.66666666605</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -11262,7 +11330,7 @@
         <v>-47453.058823529995</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -11316,7 +11384,7 @@
         <v>-19676</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -11370,7 +11438,7 @@
         <v>-365516.80000000005</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -11424,7 +11492,7 @@
         <v>-236520</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -11478,7 +11546,7 @@
         <v>-12151.261904761901</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -11532,7 +11600,7 @@
         <v>-811080</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -11586,7 +11654,7 @@
         <v>-461120</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -11640,7 +11708,7 @@
         <v>614.51132075472015</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -11694,7 +11762,7 @@
         <v>-20925.986666666697</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -11748,7 +11816,7 @@
         <v>-724097.14285714203</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -11802,7 +11870,7 @@
         <v>129158.14285714221</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -11856,7 +11924,7 @@
         <v>5267.2758620690001</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -11910,7 +11978,7 @@
         <v>-131568.53333333303</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -12028,7 +12096,7 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -12036,7 +12104,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -12080,7 +12148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>3.7819337027021916E-5</v>
@@ -12128,7 +12196,7 @@
         <v>2491278</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>9.8330276270256986E-4</v>
@@ -12176,7 +12244,7 @@
         <v>11195.5903614457</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>7.7529640905394928E-3</v>
@@ -12224,7 +12292,7 @@
         <v>2648.2062430323299</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>1.8909668513510958E-5</v>
@@ -12272,7 +12340,7 @@
         <v>313300</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3.3243197246752267E-2</v>
@@ -12320,7 +12388,7 @@
         <v>1033.44408532643</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>7.8664221016205588E-3</v>
@@ -12368,7 +12436,7 @@
         <v>1306.92170818505</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4.3492237581075206E-4</v>
@@ -12416,7 +12484,7 @@
         <v>34159.949999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>3.7819337027021916E-5</v>
@@ -12464,7 +12532,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>3.4037403324319726E-4</v>
@@ -12512,7 +12580,7 @@
         <v>7985.75</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9.4548342567554784E-5</v>
@@ -12560,7 +12628,7 @@
         <v>54161.333333333299</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>2.4015279012158915E-3</v>
@@ -12608,7 +12676,7 @@
         <v>4782.9444444444398</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>4.1601270729724107E-3</v>
@@ -12656,7 +12724,7 @@
         <v>1234.8620689655099</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>2.6284439233780232E-3</v>
@@ -12704,7 +12772,7 @@
         <v>7765.5411764705796</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>0.8644365864266399</v>
@@ -12752,7 +12820,7 @@
         <v>74.274755507791497</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>6.879337405215287E-2</v>
@@ -12800,7 +12868,7 @@
         <v>458.00138696255198</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>4.7274171283777394E-4</v>
@@ -12848,7 +12916,7 @@
         <v>19285.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>2.269160221621315E-4</v>
@@ -12896,7 +12964,7 @@
         <v>20879.571428571398</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>9.2657375716203693E-4</v>
@@ -12944,7 +13012,7 @@
         <v>5831.1724137930996</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>3.3091919898644178E-3</v>
@@ -12992,7 +13060,7 @@
         <v>4081.3603603603601</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>1.8342378458105629E-3</v>
@@ -13040,7 +13108,7 @@
         <v>4984.6987951807196</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -13050,7 +13118,7 @@
         <v>52883</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -13104,7 +13172,7 @@
         <v>-1147082</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -13158,7 +13226,7 @@
         <v>180.83734939759961</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -13212,7 +13280,7 @@
         <v>-156.22296544034998</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -13266,7 +13334,7 @@
         <v>313300</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -13320,7 +13388,7 @@
         <v>-240.44861021332008</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -13374,7 +13442,7 @@
         <v>161.15302491102989</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13428,7 +13496,7 @@
         <v>13055.399999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13482,7 +13550,7 @@
         <v>-9160</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -13536,7 +13604,7 @@
         <v>-7199.0833333332994</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -13590,7 +13658,7 @@
         <v>-52335.333333332703</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -13644,7 +13712,7 @@
         <v>-3819.277777777781</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -13698,7 +13766,7 @@
         <v>-821.46896551724012</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -13752,7 +13820,7 @@
         <v>1663.2823529411698</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -13806,7 +13874,7 @@
         <v>-5.4426867275657997</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -13860,7 +13928,7 @@
         <v>-26.766990291262005</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -13914,7 +13982,7 @@
         <v>10770.833333333339</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -13968,7 +14036,7 @@
         <v>-15447.428571428602</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -14022,7 +14090,7 @@
         <v>-2617.9655172413804</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -14076,7 +14144,7 @@
         <v>90.25225225225995</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -14194,7 +14262,7 @@
       <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -14202,7 +14270,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -14247,7 +14315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>5.1616387030259721E-3</v>
@@ -14295,7 +14363,7 @@
         <v>363.581554734478</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>3.4378721325882378E-2</v>
@@ -14343,7 +14411,7 @@
         <v>94.184792487125094</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2.800292257168573E-6</v>
@@ -14391,7 +14459,7 @@
         <v>3745.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>0.84646394262014479</v>
@@ -14439,7 +14507,7 @@
         <v>4.2029690341718497</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5.9543547694927762E-3</v>
@@ -14487,7 +14555,7 @@
         <v>294.95179521276498</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5.6157527640634764E-3</v>
@@ -14535,7 +14603,7 @@
         <v>42.966779452476104</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5.8339422024345276E-6</v>
@@ -14583,7 +14651,7 @@
         <v>5116.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>1.9455030456678663E-3</v>
@@ -14631,7 +14699,7 @@
         <v>88.366058214109501</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>1.3299054644669748E-3</v>
@@ -14679,7 +14747,7 @@
         <v>306.85749185667697</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>2.203386626784282E-2</v>
@@ -14727,7 +14795,7 @@
         <v>28.749702465287601</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>1.9287012921248548E-3</v>
@@ -14775,7 +14843,7 @@
         <v>118.16479591836701</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>3.5057325482869564E-2</v>
@@ -14823,7 +14891,7 @@
         <v>61.2500250125062</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>5.1105333693326463E-4</v>
@@ -14871,7 +14939,7 @@
         <v>650.44736842105203</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>3.0021466573728079E-3</v>
@@ -14919,7 +14987,7 @@
         <v>422.055698647778</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>1.6095146463452569E-2</v>
@@ -14967,7 +15035,7 @@
         <v>267.752983189617</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>2.333576880973811E-7</v>
@@ -15015,7 +15083,7 @@
         <v>66544.631578947301</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>1.5250858347916244E-2</v>
@@ -15063,7 +15131,7 @@
         <v>150.10858518320401</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>3.8501684959186908E-3</v>
@@ -15111,7 +15179,7 @@
         <v>832.00411146642296</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>1.0951476302410094E-3</v>
@@ -15159,7 +15227,7 @@
         <v>142.42687747035501</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>3.168997404362435E-4</v>
@@ -15207,7 +15275,7 @@
         <v>3556.0512195121901</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -15230,7 +15298,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -15284,7 +15352,7 @@
         <v>194.32422661740301</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -15338,7 +15406,7 @@
         <v>-43.253286041266904</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -15392,7 +15460,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -15446,7 +15514,7 @@
         <v>1.7139185126603396</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -15500,7 +15568,7 @@
         <v>269.57197473404159</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -15554,7 +15622,7 @@
         <v>-244.49446324207889</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -15608,7 +15676,7 @@
         <v>5116.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -15662,7 +15730,7 @@
         <v>-159.06314750863251</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -15716,7 +15784,7 @@
         <v>224.70439739413627</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -15770,7 +15838,7 @@
         <v>6.8732785491641017</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -15824,7 +15892,7 @@
         <v>-1051.2811224489731</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -15878,7 +15946,7 @@
         <v>1.617348674337201</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -15932,7 +16000,7 @@
         <v>588.91052631578896</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -15986,7 +16054,7 @@
         <v>348.3554410817768</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -16040,7 +16108,7 @@
         <v>246.0181604389856</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -16094,7 +16162,7 @@
         <v>-82075.47368420969</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -16148,7 +16216,7 @@
         <v>135.50345012035302</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -16202,7 +16270,7 @@
         <v>794.57400639561445</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -16256,7 +16324,7 @@
         <v>-189.64130434782601</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -16374,7 +16442,7 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -16382,7 +16450,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -16427,7 +16495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>1.0635469290082426E-3</v>
@@ -16475,7 +16543,7 @@
         <v>893673.07407407404</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>2.9779314012230791E-3</v>
@@ -16523,7 +16591,7 @@
         <v>276926.55395683402</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>1.2071257644243553E-2</v>
@@ -16571,7 +16639,7 @@
         <v>66133.092753623103</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>2.1270938580164852E-3</v>
@@ -16619,7 +16687,7 @@
         <v>500777.16666666599</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>1.276256314809891E-3</v>
@@ -16667,7 +16735,7 @@
         <v>997956.75</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6.434458920499867E-3</v>
@@ -16715,7 +16783,7 @@
         <v>123437.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6.4131879819197019E-2</v>
@@ -16763,7 +16831,7 @@
         <v>23862.310208685802</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>2.6588673225206064E-4</v>
@@ -16811,7 +16879,7 @@
         <v>238500</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>0.76367987237436852</v>
@@ -16859,7 +16927,7 @@
         <v>870.07670850766999</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>3.881946290880085E-3</v>
@@ -16907,7 +16975,7 @@
         <v>62952.227272727199</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>1.276256314809891E-3</v>
@@ -16955,7 +17023,7 @@
         <v>32629.5555555555</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>9.6995479925551714E-2</v>
@@ -17003,7 +17071,7 @@
         <v>12056.351828499301</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>5.3177346450412129E-4</v>
@@ -17051,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>7.4448285030576978E-4</v>
@@ -17099,7 +17167,7 @@
         <v>225995.75</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>5.3177346450412129E-4</v>
@@ -17147,7 +17215,7 @@
         <v>613.33333333333303</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>6.3812815740494548E-4</v>
@@ -17195,7 +17263,7 @@
         <v>181028.33333333299</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>2.6588673225206064E-4</v>
@@ -17243,7 +17311,7 @@
         <v>1839333.33333333</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.3879287423557565E-2</v>
@@ -17291,7 +17359,7 @@
         <v>113131.46376811501</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>4.2541877160329699E-4</v>
@@ -17339,7 +17407,7 @@
         <v>2092380</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>2.6801382611007712E-2</v>
@@ -17387,7 +17455,7 @@
         <v>10924.971223021499</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -17410,7 +17478,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -17464,7 +17532,7 @@
         <v>-215876.81481480587</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -17518,7 +17586,7 @@
         <v>-49765.007194245001</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -17572,7 +17640,7 @@
         <v>-6345.3159420290031</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -17626,7 +17694,7 @@
         <v>176870.33333333296</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -17680,7 +17748,7 @@
         <v>29101.125</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -17734,7 +17802,7 @@
         <v>4293.1999999999971</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -17788,7 +17856,7 @@
         <v>1044.2842639594019</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -17842,7 +17910,7 @@
         <v>24660</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -17896,7 +17964,7 @@
         <v>112.36627482234098</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -17950,7 +18018,7 @@
         <v>-9169.4090909090955</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -18004,7 +18072,7 @@
         <v>-37467.777777777796</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -18058,7 +18126,7 @@
         <v>3123.8600252206197</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -18112,7 +18180,7 @@
         <v>-841333.33333333302</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -18166,7 +18234,7 @@
         <v>9728</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -18220,7 +18288,7 @@
         <v>-178456.66666666666</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -18274,7 +18342,7 @@
         <v>106920.99999999969</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -18328,7 +18396,7 @@
         <v>1086666.666666664</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -18382,7 +18450,7 @@
         <v>70486.275362317916</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -18436,7 +18504,7 @@
         <v>69852</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -18554,7 +18622,7 @@
       <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -18562,7 +18630,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -18607,7 +18675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>1.3037044762693193E-6</v>
@@ -18655,7 +18723,7 @@
         <v>70252686</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>1.3037044762693193E-6</v>
@@ -18703,7 +18771,7 @@
         <v>679740</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>1.0429635810154554E-5</v>
@@ -18751,7 +18819,7 @@
         <v>529090.47826086904</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3.2566537817207597E-3</v>
@@ -18799,7 +18867,7 @@
         <v>4900.72775954396</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3.8328911602317987E-4</v>
@@ -18847,7 +18915,7 @@
         <v>7816.0886075949302</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>2.3466680572847747E-5</v>
@@ -18895,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>1.2605518581048048E-2</v>
@@ -18943,7 +19011,7 @@
         <v>1144.17575163735</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>5.1744030663129284E-2</v>
@@ -18991,7 +19059,7 @@
         <v>408.22976755506801</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>1.0132391189565149E-2</v>
@@ -19039,7 +19107,7 @@
         <v>156.300316122233</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>1.9555567144039788E-5</v>
@@ -19087,7 +19155,7 @@
         <v>327443.20000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>4.8080621084812493E-3</v>
@@ -19135,7 +19203,7 @@
         <v>4008.5166498486301</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>5.214817905077277E-6</v>
@@ -19183,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>0.91519141640972823</v>
@@ -19231,7 +19299,7 @@
         <v>9.2668411054159598</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>7.9525973052428477E-5</v>
@@ -19279,7 +19347,7 @@
         <v>40877.133333333302</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>8.3437086481236432E-5</v>
@@ -19327,7 +19395,7 @@
         <v>17379.4545454545</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>2.6074089525386385E-6</v>
@@ -19375,7 +19443,7 @@
         <v>339870</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>7.1051893956677902E-4</v>
@@ -19423,7 +19491,7 @@
         <v>702.45384615384603</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.3037044762693193E-6</v>
@@ -19471,7 +19539,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>9.1911165576987006E-4</v>
@@ -19519,7 +19587,7 @@
         <v>20201.226950354601</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>2.0859271620309108E-5</v>
@@ -19567,7 +19635,7 @@
         <v>18339.8</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -19590,7 +19658,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -19644,7 +19712,7 @@
         <v>70252686</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -19698,7 +19766,7 @@
         <v>-2752360</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -19752,7 +19820,7 @@
         <v>339069.52173913002</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -19806,7 +19874,7 @@
         <v>-287.58023838313966</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -19860,7 +19928,7 @@
         <v>-2513.9620253163694</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -19914,7 +19982,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -19968,7 +20036,7 @@
         <v>164.44556753132201</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -20022,7 +20090,7 @@
         <v>75.934014847268031</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -20076,7 +20144,7 @@
         <v>19.802423603792988</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -20130,7 +20198,7 @@
         <v>327427.8</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -20184,7 +20252,7 @@
         <v>422.94954591321994</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -20238,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -20292,7 +20360,7 @@
         <v>1.2529624717731807</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -20346,7 +20414,7 @@
         <v>-53866.599999999991</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -20400,7 +20468,7 @@
         <v>9003.1818181817798</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -20454,7 +20522,7 @@
         <v>-128580</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -20508,7 +20576,7 @@
         <v>-848.05384615384389</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -20562,7 +20630,7 @@
         <v>-600000</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -20616,7 +20684,7 @@
         <v>8862.4326241135004</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -20728,10 +20796,10 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B2" sqref="B2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -20742,12 +20810,12 @@
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>53</v>
       </c>
@@ -20770,7 +20838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <v>0</v>
       </c>
@@ -20799,7 +20867,7 @@
         <v>1.9606132406093979E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -20828,7 +20896,7 @@
         <v>1.1381359861737555E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -20857,7 +20925,7 @@
         <v>3.823195819188326E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -20886,7 +20954,7 @@
         <v>1.767492836409372E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -20915,7 +20983,7 @@
         <v>5.8667429998755009E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -20944,7 +21012,7 @@
         <v>0.13292859740669688</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -20973,7 +21041,7 @@
         <v>5.8122379517865598E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -21002,7 +21070,7 @@
         <v>1.8027838747403412E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -21031,7 +21099,7 @@
         <v>0.23150332961143585</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -21060,7 +21128,7 @@
         <v>0.35517881282907665</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -21089,7 +21157,7 @@
         <v>4.6603776729285387E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -21118,7 +21186,7 @@
         <v>8.1820311757111394E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -21147,7 +21215,7 @@
         <v>5.3593362932057888E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -21176,7 +21244,7 @@
         <v>2.1076592336551027E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -21205,7 +21273,7 @@
         <v>4.128071178103087E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -21234,7 +21302,7 @@
         <v>3.3081427208802368E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -21263,7 +21331,7 @@
         <v>1.8211156085400391E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -21292,7 +21360,7 @@
         <v>2.8428891988836269E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -21321,7 +21389,7 @@
         <v>8.4473021471655908E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -21350,7 +21418,7 @@
         <v>9.8030662030469897E-7</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>60</v>
       </c>
@@ -21411,7 +21479,7 @@
       <selection activeCell="B2" sqref="B2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -21422,12 +21490,12 @@
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>53</v>
       </c>
@@ -21450,7 +21518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <v>0</v>
       </c>
@@ -21479,7 +21547,7 @@
         <v>2.3623349318466372E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -21508,7 +21576,7 @@
         <v>5.4333703432472651E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -21537,7 +21605,7 @@
         <v>1.1315584323545392E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -21566,7 +21634,7 @@
         <v>6.4149205074295432E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -21595,7 +21663,7 @@
         <v>0.13255061302591481</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -21624,7 +21692,7 @@
         <v>9.1942075547471122E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -21653,7 +21721,7 @@
         <v>1.1693557912640855E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -21682,7 +21750,7 @@
         <v>1.1811674659233187E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -21711,7 +21779,7 @@
         <v>5.6223571377949965E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -21740,7 +21808,7 @@
         <v>3.7679242162953863E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -21769,7 +21837,7 @@
         <v>0.19366421771278733</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -21798,7 +21866,7 @@
         <v>3.1300937846967941E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -21827,7 +21895,7 @@
         <v>2.1993338215492191E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -21856,7 +21924,7 @@
         <v>3.5435023977699562E-5</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -21885,7 +21953,7 @@
         <v>5.0790201034702702E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -21914,7 +21982,7 @@
         <v>5.1971368500626015E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -21943,7 +22011,7 @@
         <v>5.7522855590465619E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -21972,7 +22040,7 @@
         <v>1.4079516193805958E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -22001,7 +22069,7 @@
         <v>3.1466301292197206E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -22030,7 +22098,7 @@
         <v>0.36587843424440719</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>60</v>
       </c>
@@ -22087,9 +22155,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -22100,12 +22170,12 @@
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>53</v>
       </c>
@@ -22128,7 +22198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <v>0</v>
       </c>
@@ -22157,7 +22227,7 @@
         <v>3.7819337027021916E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -22186,7 +22256,7 @@
         <v>9.8330276270256986E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -22215,7 +22285,7 @@
         <v>7.7529640905394928E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -22244,7 +22314,7 @@
         <v>1.8909668513510958E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -22273,7 +22343,7 @@
         <v>3.3243197246752267E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -22302,7 +22372,7 @@
         <v>7.8664221016205588E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -22331,7 +22401,7 @@
         <v>4.3492237581075206E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -22360,7 +22430,7 @@
         <v>3.7819337027021916E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -22389,7 +22459,7 @@
         <v>3.4037403324319726E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -22418,7 +22488,7 @@
         <v>9.4548342567554784E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -22447,7 +22517,7 @@
         <v>2.4015279012158915E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -22476,7 +22546,7 @@
         <v>4.1601270729724107E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -22505,7 +22575,7 @@
         <v>2.6284439233780232E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -22534,7 +22604,7 @@
         <v>0.8644365864266399</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -22563,7 +22633,7 @@
         <v>6.879337405215287E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -22592,7 +22662,7 @@
         <v>4.7274171283777394E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -22621,7 +22691,7 @@
         <v>2.269160221621315E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -22650,7 +22720,7 @@
         <v>9.2657375716203693E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -22679,7 +22749,7 @@
         <v>3.3091919898644178E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -22708,7 +22778,7 @@
         <v>1.8342378458105629E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>60</v>
       </c>
@@ -22765,11 +22835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -22780,12 +22850,12 @@
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>53</v>
       </c>
@@ -22808,7 +22878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26">
         <v>0</v>
       </c>
@@ -22837,7 +22907,7 @@
         <v>1.3037044762693193E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -22866,7 +22936,7 @@
         <v>1.3037044762693193E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -22895,7 +22965,7 @@
         <v>1.0429635810154554E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -22924,7 +22994,7 @@
         <v>3.2566537817207597E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -22953,7 +23023,7 @@
         <v>3.8328911602317987E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -22982,7 +23052,7 @@
         <v>2.3466680572847747E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -23011,7 +23081,7 @@
         <v>1.2605518581048048E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -23040,7 +23110,7 @@
         <v>5.1744030663129284E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -23069,7 +23139,7 @@
         <v>1.0132391189565149E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -23098,7 +23168,7 @@
         <v>1.9555567144039788E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -23127,7 +23197,7 @@
         <v>4.8080621084812493E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -23156,7 +23226,7 @@
         <v>5.214817905077277E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -23185,7 +23255,7 @@
         <v>0.91519141640972823</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -23214,7 +23284,7 @@
         <v>7.9525973052428477E-5</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -23243,7 +23313,7 @@
         <v>8.3437086481236432E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -23272,7 +23342,7 @@
         <v>2.6074089525386385E-6</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -23301,7 +23371,7 @@
         <v>7.1051893956677902E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -23330,7 +23400,7 @@
         <v>1.3037044762693193E-6</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -23359,7 +23429,7 @@
         <v>9.1911165576987006E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -23388,7 +23458,7 @@
         <v>2.0859271620309108E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>60</v>
       </c>
@@ -23446,13 +23516,13 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:C9"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -23464,7 +23534,7 @@
     <col min="11" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -23508,7 +23578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>4.4255287527556718E-3</v>
@@ -23556,7 +23626,7 @@
         <v>138.28960878426801</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>5.0281759666523942E-2</v>
@@ -23604,7 +23674,7 @@
         <v>0.230343489951951</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>0.17524088903357762</v>
@@ -23652,7 +23722,7 @@
         <v>92.078954239894301</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>0.19085718633116183</v>
@@ -23700,7 +23770,7 @@
         <v>25.156997994471201</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>2.214215195382857E-2</v>
@@ -23748,7 +23818,7 @@
         <v>309.06218441588197</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6.686683250825374E-3</v>
@@ -23796,7 +23866,7 @@
         <v>115.223524918846</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>0.12834909182268869</v>
@@ -23844,7 +23914,7 @@
         <v>145.18115262668701</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>2.1594202385712618E-4</v>
@@ -23892,7 +23962,7 @@
         <v>1723.0034129692799</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>6.2103103691095861E-2</v>
@@ -23940,7 +24010,7 @@
         <v>209.09500386508799</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>6.2535518526250972E-2</v>
@@ -23988,7 +24058,7 @@
         <v>0.73580591125251504</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>4.3205036111238895E-2</v>
@@ -24036,7 +24106,7 @@
         <v>54.9950895152828</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>1.6365946093227507E-5</v>
@@ -24084,7 +24154,7 @@
         <v>6564.3921568627402</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>1.1947140648056079E-3</v>
@@ -24132,7 +24202,7 @@
         <v>675.31803471609203</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>2.0061465185651755E-2</v>
@@ -24180,7 +24250,7 @@
         <v>0.67110514951252997</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>8.3375206564779061E-3</v>
@@ -24228,7 +24298,7 @@
         <v>99.290533555086</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1.0072576336080453E-2</v>
@@ -24276,7 +24346,7 @@
         <v>144.44951652210301</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>2.5075283352028847E-3</v>
@@ -24324,7 +24394,7 @@
         <v>7.6539513459046997</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>4.3212290206264001E-3</v>
@@ -24372,7 +24442,7 @@
         <v>521.63344025661502</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>4.1990594446547937E-3</v>
@@ -24420,7 +24490,7 @@
         <v>177.68879999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>0.20324664984660243</v>
@@ -24468,7 +24538,7 @@
         <v>60.4245257211251</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -24478,7 +24548,7 @@
         <v>11303960</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -24532,7 +24602,7 @@
         <v>-112.27742211019498</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -24586,7 +24656,7 @@
         <v>-302.51956467436202</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -24640,7 +24710,7 @@
         <v>-8.2453627421017046</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -24694,7 +24764,7 @@
         <v>-5.7850307333730981</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -24748,7 +24818,7 @@
         <v>-14.06564149644305</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -24802,7 +24872,7 @@
         <v>-7.1363757876650027</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -24856,7 +24926,7 @@
         <v>-1.3080071612099857</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -24910,7 +24980,7 @@
         <v>874.31228668941685</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -24964,7 +25034,7 @@
         <v>-2.8989177753360025</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -25018,7 +25088,7 @@
         <v>-170.07931286467448</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -25072,7 +25142,7 @@
         <v>4.8085535174467964</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -25126,7 +25196,7 @@
         <v>3546.6078431372503</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -25180,7 +25250,7 @@
         <v>369.74845542806702</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -25234,7 +25304,7 @@
         <v>-492.01768304652148</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -25288,7 +25358,7 @@
         <v>-18.673124466220003</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -25342,7 +25412,7 @@
         <v>22.965724168654006</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -25396,7 +25466,7 @@
         <v>-870.22901972074226</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -25450,7 +25520,7 @@
         <v>24.299839615075996</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -25504,7 +25574,7 @@
         <v>101.51404999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -25622,7 +25692,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -25634,7 +25704,7 @@
     <col min="11" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -25678,7 +25748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>1.3592127439786874E-4</v>
@@ -25726,7 +25796,7 @@
         <v>25076302.625</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>1.0873701951829499E-3</v>
@@ -25774,7 +25844,7 @@
         <v>2482513.0462962901</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>4.8387973685641277E-3</v>
@@ -25822,7 +25892,7 @@
         <v>458682.76573938498</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>9.6775947371282554E-3</v>
@@ -25870,7 +25940,7 @@
         <v>272128.73972602701</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4.711031370630131E-2</v>
@@ -25918,7 +25988,7 @@
         <v>83722.442136498503</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>0.13189800467569185</v>
@@ -25966,7 +26036,7 @@
         <v>27453.152558917802</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>1.2042624911651171E-2</v>
@@ -26014,7 +26084,7 @@
         <v>138891.55333333299</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>2.2073614962213887E-2</v>
@@ -26062,7 +26132,7 @@
         <v>163475.659793814</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>2.5118251508726146E-2</v>
@@ -26110,7 +26180,7 @@
         <v>51772.376404494302</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>2.9902680367531128E-4</v>
@@ -26158,7 +26228,7 @@
         <v>5742792</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>1.9300820964497363E-3</v>
@@ -26206,7 +26276,7 @@
         <v>535758.45833333302</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>0.17058119936932528</v>
@@ -26254,7 +26324,7 @@
         <v>15724.289196940699</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>2.5825042135595062E-3</v>
@@ -26302,7 +26372,7 @@
         <v>1432014.58333333</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>1.0873701951829501E-4</v>
@@ -26350,7 +26420,7 @@
         <v>1708850</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>4.0232697221769149E-3</v>
@@ -26398,7 +26468,7 @@
         <v>614567.87804878002</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>6.2523786223019626E-4</v>
@@ -26446,7 +26516,7 @@
         <v>1118896</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>9.0985701081933337E-2</v>
@@ -26494,7 +26564,7 @@
         <v>36783.440308988698</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>4.6213233295275377E-4</v>
@@ -26542,7 +26612,7 @@
         <v>3509243.4285714198</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>0.4743380633936824</v>
@@ -26590,7 +26660,7 @@
         <v>4822.8346880430499</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>8.1552764638721258E-5</v>
@@ -26638,7 +26708,7 @@
         <v>25100592</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -26648,7 +26718,7 @@
         <v>36786</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -26702,7 +26772,7 @@
         <v>4462933.625</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -26756,7 +26826,7 @@
         <v>-60184.268518520053</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -26810,7 +26880,7 @@
         <v>18458.944363104005</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -26864,7 +26934,7 @@
         <v>18179</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -26918,7 +26988,7 @@
         <v>11216.171193791408</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -26972,7 +27042,7 @@
         <v>6729.8266629480022</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -27026,7 +27096,7 @@
         <v>57574.579999999696</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -27080,7 +27150,7 @@
         <v>10608.714776631998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -27134,7 +27204,7 @@
         <v>-12528.769662921397</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -27188,7 +27258,7 @@
         <v>-162360</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -27242,7 +27312,7 @@
         <v>176279.04166666704</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -27296,7 +27366,7 @@
         <v>-2045.1092256213997</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -27350,7 +27420,7 @@
         <v>50344.888888889924</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -27404,7 +27474,7 @@
         <v>-3495100</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -27458,7 +27528,7 @@
         <v>-50253.195121950936</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -27512,7 +27582,7 @@
         <v>-1027534</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -27566,7 +27636,7 @@
         <v>2235.1945224718947</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -27620,7 +27690,7 @@
         <v>-375206</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -27674,7 +27744,7 @@
         <v>393.8400134536696</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -27792,7 +27862,7 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -27806,7 +27876,7 @@
     <col min="13" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -27850,7 +27920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>1.9606132406093979E-6</v>
@@ -27898,7 +27968,7 @@
         <v>25374358</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>1.1381359861737555E-3</v>
@@ -27946,7 +28016,7 @@
         <v>50636.892634854703</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3.823195819188326E-5</v>
@@ -27994,7 +28064,7 @@
         <v>518271.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>1.767492836409372E-2</v>
@@ -28042,7 +28112,7 @@
         <v>6567.4878265060197</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5.8667429998755009E-2</v>
@@ -28090,7 +28160,7 @@
         <v>1350.0651250860601</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>0.13292859740669688</v>
@@ -28138,7 +28208,7 @@
         <v>353.35850685415897</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5.8122379517865598E-3</v>
@@ -28186,7 +28256,7 @@
         <v>5352.8067460317397</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>1.8027838747403412E-3</v>
@@ -28234,7 +28304,7 @@
         <v>27006.392233009701</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>0.23150332961143585</v>
@@ -28282,7 +28352,7 @@
         <v>142.27901566458101</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>0.35517881282907665</v>
@@ -28330,7 +28400,7 @@
         <v>32.302644446489701</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>4.6603776729285387E-3</v>
@@ -28378,7 +28448,7 @@
         <v>14651.8591549295</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>8.1820311757111394E-2</v>
@@ -28426,7 +28496,7 @@
         <v>629.60755083661104</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>5.3593362932057888E-3</v>
@@ -28474,7 +28544,7 @@
         <v>3791.1642666666598</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>2.1076592336551027E-3</v>
@@ -28522,7 +28592,7 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>4.128071178103087E-2</v>
@@ -28570,7 +28640,7 @@
         <v>2762.5788555712002</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>3.3081427208802368E-2</v>
@@ -28618,7 +28688,7 @@
         <v>523.38545108004996</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>1.8211156085400391E-2</v>
@@ -28666,7 +28736,7 @@
         <v>1749.1965333697201</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>2.8428891988836269E-4</v>
@@ -28714,7 +28784,7 @@
         <v>119863.93548386999</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>8.4473021471655908E-3</v>
@@ -28762,7 +28832,7 @@
         <v>11876.1192095885</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>9.8030662030469897E-7</v>
@@ -28810,7 +28880,7 @@
         <v>-2118738</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -28820,7 +28890,7 @@
         <v>1020089</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -28874,7 +28944,7 @@
         <v>6949966.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C25" si="2">B3</f>
         <v>1</v>
@@ -28928,7 +28998,7 @@
         <v>6683.7385892115999</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ref="B26:C26" si="3">B4</f>
         <v>2</v>
@@ -28982,7 +29052,7 @@
         <v>-280940.64285714203</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ref="B27:C27" si="4">B5</f>
         <v>3</v>
@@ -29036,7 +29106,7 @@
         <v>569.88830843373944</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" ref="B28:C28" si="6">B6</f>
         <v>4</v>
@@ -29090,7 +29160,7 @@
         <v>43.602527951730053</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:C29" si="7">B7</f>
         <v>5</v>
@@ -29144,7 +29214,7 @@
         <v>-6.5106712707760153</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ref="B30:C30" si="8">B8</f>
         <v>6</v>
@@ -29198,7 +29268,7 @@
         <v>2610.4126984126997</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ref="B31:C31" si="9">B9</f>
         <v>7</v>
@@ -29252,7 +29322,7 @@
         <v>15567.335922330101</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ref="B32:C32" si="10">B10</f>
         <v>8</v>
@@ -29306,7 +29376,7 @@
         <v>-5.2701611576659957</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ref="B33:C33" si="11">B11</f>
         <v>9</v>
@@ -29360,7 +29430,7 @@
         <v>-1.0263064037368963</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ref="B34:C34" si="12">B12</f>
         <v>10</v>
@@ -29414,7 +29484,7 @@
         <v>-2178.8584136398003</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ref="B35:C35" si="13">B13</f>
         <v>11</v>
@@ -29468,7 +29538,7 @@
         <v>-36.085059487130934</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" ref="B36:C36" si="14">B14</f>
         <v>12</v>
@@ -29522,7 +29592,7 @@
         <v>-2022.5792000000006</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" ref="B37:C37" si="15">B15</f>
         <v>13</v>
@@ -29576,7 +29646,7 @@
         <v>8348</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ref="B38:C38" si="16">B16</f>
         <v>14</v>
@@ -29630,7 +29700,7 @@
         <v>-24.439793385659868</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ref="B39:C39" si="17">B17</f>
         <v>15</v>
@@ -29684,7 +29754,7 @@
         <v>107.37109275730597</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ref="B40:C40" si="18">B18</f>
         <v>16</v>
@@ -29738,7 +29808,7 @@
         <v>497.43373822847002</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C41" si="19">B19</f>
         <v>17</v>
@@ -29792,7 +29862,7 @@
         <v>16232.849462364989</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" ref="B42:C42" si="20">B20</f>
         <v>18</v>
@@ -29846,7 +29916,7 @@
         <v>1744.6867508907999</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" ref="B43:C43" si="21">B21</f>
         <v>19</v>
@@ -29964,7 +30034,7 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -29972,7 +30042,7 @@
     <col min="4" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
@@ -30016,7 +30086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>C2/$C$22</f>
         <v>8.7585156021327035E-2</v>
@@ -30064,7 +30134,7 @@
         <v>407.325517775501</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A21" si="0">C3/$C$22</f>
         <v>0.21501166022914886</v>
@@ -30112,7 +30182,7 @@
         <v>56.464830890102498</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>7.6518460275828027E-3</v>
@@ -30160,7 +30230,7 @@
         <v>268.12105473431802</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>0.11360353690429047</v>
@@ -30208,7 +30278,7 @@
         <v>287.78139512742098</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4.2649751203806263E-2</v>
@@ -30256,7 +30326,7 @@
         <v>559.20062495293996</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>3.9457297160796378E-4</v>
@@ -30304,7 +30374,7 @@
         <v>2315.9016064256998</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7.0812695971242566E-3</v>
@@ -30352,7 +30422,7 @@
         <v>194.691526284601</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>9.3946628864184627E-3</v>
@@ -30400,7 +30470,7 @@
         <v>309.401327838827</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>0.16444557953921529</v>
@@ -30448,7 +30518,7 @@
         <v>221.42095658562499</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>1.1258482123213899E-2</v>
@@ -30496,7 +30566,7 @@
         <v>294.76083528196199</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>2.0538838415433209E-2</v>
@@ -30544,7 +30614,7 @@
         <v>595.13985589378206</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>3.4723378042038046E-2</v>
@@ -30592,7 +30662,7 @@
         <v>129.89274246423301</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>0.17290761540183311</v>
@@ -30640,7 +30710,7 @@
         <v>143.01291429603501</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>3.8721239217396793E-2</v>
@@ -30688,7 +30758,7 @@
         <v>359.99846531614401</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>9.2841824543682342E-3</v>
@@ -30736,7 +30806,7 @@
         <v>912.31276538079305</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>1.2707641037119511E-3</v>
@@ -30784,7 +30854,7 @@
         <v>549.489632107023</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>3.0934520974064358E-3</v>
@@ -30832,7 +30902,7 @@
         <v>959.568027210884</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>1.0378464828960987E-4</v>
@@ -30880,7 +30950,7 @@
         <v>1677.9212121212099</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>3.8488799866849555E-2</v>
@@ -30928,7 +30998,7 @@
         <v>96.136121032689104</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>2.1791428248937761E-2</v>
@@ -30976,7 +31046,7 @@
         <v>484.62745036243302</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>SUM(A2:A21)</f>
         <v>1</v>
@@ -30986,7 +31056,7 @@
         <v>2090868</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B2</f>
         <v>0</v>
@@ -31040,7 +31110,7 @@
         <v>405.42862317935339</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ref="B25:C40" si="2">B3</f>
         <v>1</v>
@@ -31094,7 +31164,7 @@
         <v>44.256652294720695</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -31148,7 +31218,7 @@
         <v>253.32051538154141</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -31202,7 +31272,7 @@
         <v>287.44568862465462</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -31256,7 +31326,7 @@
         <v>558.78700775543973</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -31310,7 +31380,7 @@
         <v>2301.9959839357398</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -31364,7 +31434,7 @@
         <v>-28.435537120122007</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -31418,7 +31488,7 @@
         <v>304.47588522588438</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -31472,7 +31542,7 @@
         <v>220.83725111134419</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -31526,7 +31596,7 @@
         <v>291.30757518081458</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -31580,7 +31650,7 @@
         <v>594.075696243523</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -31634,7 +31704,7 @@
         <v>121.85918665837252</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -31688,7 +31758,7 @@
         <v>142.4068665522739</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -31742,7 +31812,7 @@
         <v>359.29882852465641</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -31796,7 +31866,7 @@
         <v>908.92537717951018</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -31850,7 +31920,7 @@
         <v>532.43545150501643</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -31904,7 +31974,7 @@
         <v>950.48325484039731</v>
       </c>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ref="B41:C43" si="4">B19</f>
         <v>17</v>
@@ -31958,7 +32028,7 @@
         <v>1485.3696969696948</v>
       </c>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -32012,7 +32082,7 @@
         <v>-23.137356891610892</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="4"/>
         <v>19</v>
